--- a/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1809,4 +1810,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.7281</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7281</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7281</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>42.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7281</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7336</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7336</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>19.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7336</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.6473</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>34.25</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.6370</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4963</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4692</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3463</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2770</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0943</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006373</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006374</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富兰克林国海全球科技互联混合（QDII）美元现汇</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2588,4 +2589,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>17</v>
+      </c>
+      <c r="D3" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
@@ -2613,12 +2613,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2597,7 +2598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2608,17 +2609,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2628,14 +2649,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.6</v>
+          <t>000055</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数(QDII) A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.9918</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2644,14 +2687,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>17</v>
-      </c>
-      <c r="D3" t="n">
-        <v>9.890000000000001</v>
+          <t>270042</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数QDII A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.9918</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2660,13 +2725,781 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>006479</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006480</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100指数（QDII）C美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.36</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9918</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4777</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2815</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.8936</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>25.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.43</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.8936</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8043</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8043</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>22.85</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8043</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5590</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.15</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4882</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.26</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4451</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3211</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0966</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>20</v>
+      </c>
+      <c r="D2" t="n">
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>16</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>7.71</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3414,7 +3415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,17 +3426,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3445,14 +3466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>20</v>
-      </c>
-      <c r="D2" t="n">
-        <v>21.42</v>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -3461,14 +3504,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.6</v>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3477,14 +3542,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>17</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.890000000000001</v>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3493,13 +3580,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>7.71</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>22</v>
       </c>
       <c r="D2" t="n">
-        <v>11.71</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>21.42</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>12.6</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>9.890000000000001</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>17</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>16</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>7.71</v>
       </c>
     </row>
@@ -627,27 +644,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发纳斯达克100ETFQDII</t>
+          <t>广发纳斯达克100ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>106.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7355</t>
+          <t>3.4180</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -665,31 +682,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100 (QDII-ETF)</t>
+          <t>国泰纳斯达克100（QDII-ETF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.74</t>
+          <t>46.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4651</t>
+          <t>1.5405</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -703,31 +720,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时标普500ETF(QDII)</t>
+          <t>博时标普500ETF（QDII）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.95</t>
+          <t>71.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>96.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1205</t>
+          <t>1.1776</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -736,32 +753,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>040047</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 人民币</t>
+          <t>华安纳斯达克100指数（QDII）美元现钞A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.8018</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -774,32 +791,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040047</t>
+          <t>040048</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+          <t>华安纳斯达克100指数（QDII）美元现汇A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.8018</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -812,32 +829,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>040048</t>
+          <t>040046</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+          <t>华安纳斯达克100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>22.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.7263</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -850,32 +867,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014978</t>
+          <t>160213</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数（QDII）人民币C</t>
+          <t>国泰纳斯达克100指数（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>85.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.4784</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -888,36 +905,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270023</t>
+          <t>000834</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)</t>
+          <t>大成纳斯达克100指数（QDII）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>85.22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7405</t>
+          <t>0.4330</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -926,36 +943,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000906</t>
+          <t>003722</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7405</t>
+          <t>0.2509</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -964,32 +981,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160213</t>
+          <t>161130</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100指数(QDII)</t>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4771</t>
+          <t>0.2509</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1002,32 +1019,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000834</t>
+          <t>014978</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成纳斯达克100指数 (QDII)</t>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4541</t>
+          <t>0.0755</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1040,36 +1057,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003722</t>
+          <t>161125</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+          <t>易方达标普500指数（QDII-LOF）人民币</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2598</t>
+          <t>0.0739</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1078,36 +1095,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161130</t>
+          <t>012860</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2598</t>
+          <t>0.0739</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -1121,31 +1138,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达标普500指数(QDII-LOF) 美元</t>
+          <t>易方达标普500指数（QDII-LOF）美元A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1154,32 +1171,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161125</t>
+          <t>159632</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+          <t>华安纳斯达克100ETF（QDII）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.0479</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1192,36 +1209,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012860</t>
+          <t>005698</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达标普500指数（QDII-LOF）人民币C</t>
+          <t>华夏全球科技先锋混合（QDII）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>86.79</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1230,36 +1247,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012861</t>
+          <t>159612</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达标普500指数（QDII-LOF）美元C</t>
+          <t>国泰标普500ETF（QDII）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -1268,36 +1285,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005698</t>
+          <t>006555</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏全球科技先锋混合QDII</t>
+          <t>浦银安盛全球智能科技股票（QDII）A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>75.04</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -1306,36 +1323,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006555</t>
+          <t>012871</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -1354,22 +1371,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1382,36 +1399,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012871</t>
+          <t>012861</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+          <t>易方达标普500指数（QDII-LOF）美元 C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -1435,12 +1452,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1449,7 +1466,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1458,6 +1475,898 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2273,7 +3182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3051,7 +3960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3753,7 +4662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
+++ b/数据整理/stocks/其他/GOOG-Alphabet公司.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>10.29</v>
+        <v>10.39</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>11.71</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>21.42</v>
+        <v>11.71</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
-        <v>12.6</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>9.890000000000001</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.890000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>16</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>7.71</v>
       </c>
     </row>
@@ -588,7 +605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,26 +666,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>106.15</t>
+          <t>114.77</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.14</t>
+          <t>90.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4180</t>
+          <t>3.8907</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -687,26 +704,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>46.54</t>
+          <t>51.50</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.35</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.5405</t>
+          <t>1.5810</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -725,26 +742,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>71.37</t>
+          <t>93.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>96.44</t>
+          <t>95.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1776</t>
+          <t>1.3009</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -753,36 +770,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040047</t>
+          <t>159632</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数（QDII）美元现钞A</t>
+          <t>华安纳斯达克100ETF（QDII）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>30.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>87.77</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.36</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8018</t>
+          <t>1.0211</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -791,36 +808,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040048</t>
+          <t>160213</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数（QDII）美元现汇A</t>
+          <t>国泰纳斯达克100指数（QDII）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>24.52</t>
+          <t>15.65</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>90.80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8018</t>
+          <t>0.5431</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -829,32 +846,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>000834</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数（QDII）人民币A</t>
+          <t>大成纳斯达克100指数（QDII）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>22.21</t>
+          <t>15.61</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>81.77</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>3.11</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7263</t>
+          <t>0.4855</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -867,36 +884,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>160213</t>
+          <t>513300</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100指数（QDII）</t>
+          <t>华夏纳斯达克100ETF（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>15.14</t>
+          <t>12.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>85.81</t>
+          <t>97.54</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4784</t>
+          <t>0.4636</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -905,36 +922,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>000834</t>
+          <t>161130</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>大成纳斯达克100指数（QDII）</t>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>14.15</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>85.22</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.06</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.4330</t>
+          <t>0.2681</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -953,26 +970,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>7.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.45</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2509</t>
+          <t>0.2681</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -981,36 +998,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161130</t>
+          <t>012860</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.2509</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1019,36 +1036,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>014978</t>
+          <t>161125</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数（QDII）人民币C</t>
+          <t>易方达标普500指数（QDII-LOF）人民币</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.31</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.09</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.27</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0755</t>
+          <t>0.0632</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -1057,36 +1074,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>161125</t>
+          <t>003718</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达标普500指数（QDII-LOF）人民币</t>
+          <t>易方达标普500指数（QDII-LOF）美元A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>4.65</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0618</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1095,36 +1112,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>012860</t>
+          <t>016532</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
+          <t>嘉实纳斯达克100指数（QDII）A人民币</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0739</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1133,36 +1150,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>003718</t>
+          <t>016533</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达标普500指数（QDII-LOF）美元A</t>
+          <t>嘉实纳斯达克100指数（QDII）C人民币</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0727</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
@@ -1171,36 +1188,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>159632</t>
+          <t>016534</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>华安纳斯达克100ETF（QDII）</t>
+          <t>嘉实纳斯达克100指数（QDII）A美元现汇</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>89.05</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0479</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
@@ -1209,36 +1226,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005698</t>
+          <t>016535</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>华夏全球科技先锋混合（QDII）</t>
+          <t>嘉实纳斯达克100指数（QDII）C美元现汇</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>86.79</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>6.46</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0381</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -1247,36 +1264,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>159612</t>
+          <t>016055</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国泰标普500ETF（QDII）</t>
+          <t>博时纳斯达克100指数（QDII）A人民币</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>90.62</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0087</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19">
@@ -1285,36 +1302,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006555</t>
+          <t>016057</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>浦银安盛全球智能科技股票（QDII）A</t>
+          <t>博时纳斯达克100指数（QDII）C人民币</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>84.65</t>
+          <t>90.62</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>3.13</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0078</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20">
@@ -1323,36 +1340,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>012871</t>
+          <t>016056</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+          <t>博时纳斯达克100指数（QDII）A美元现汇</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.62</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -1361,36 +1378,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>012870</t>
+          <t>016058</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+          <t>博时纳斯达克100指数（QDII）C美元现汇</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>90.67</t>
+          <t>90.62</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0058</t>
+          <t>0.0367</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1399,36 +1416,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012861</t>
+          <t>005698</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达标普500指数（QDII-LOF）美元 C</t>
+          <t>华夏全球科技先锋混合（QDII）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>90.72</t>
+          <t>83.35</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>1.56</t>
+          <t>5.68</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0012</t>
+          <t>0.0341</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
@@ -1437,35 +1454,263 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>159612</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
           <t>014002</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>浦银安盛全球智能科技股票（QDII）C</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>84.65</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>159655</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华夏标普500ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元 C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1536,27 +1781,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发纳斯达克100ETFQDII</t>
+          <t>广发纳斯达克100ETF（QDII）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.29</t>
+          <t>106.15</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.57</t>
+          <t>91.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.45</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.7355</t>
+          <t>3.4180</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1574,31 +1819,31 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100 (QDII-ETF)</t>
+          <t>国泰纳斯达克100（QDII-ETF）</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>41.74</t>
+          <t>46.54</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>89.25</t>
+          <t>91.35</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.51</t>
+          <t>3.31</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.4651</t>
+          <t>1.5405</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1612,31 +1857,31 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>博时标普500ETF(QDII)</t>
+          <t>博时标普500ETF（QDII）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>62.95</t>
+          <t>71.37</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.01</t>
+          <t>96.44</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.1205</t>
+          <t>1.1776</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1645,32 +1890,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>040046</t>
+          <t>040047</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 人民币</t>
+          <t>华安纳斯达克100指数（QDII）美元现钞A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.8018</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1683,32 +1928,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>040047</t>
+          <t>040048</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+          <t>华安纳斯达克100指数（QDII）美元现汇A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>24.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.8018</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1721,32 +1966,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>040048</t>
+          <t>040046</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+          <t>华安纳斯达克100指数（QDII）人民币A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>22.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.7263</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1759,32 +2004,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>014978</t>
+          <t>160213</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华安纳斯达克100指数（QDII）人民币C</t>
+          <t>国泰纳斯达克100指数（QDII）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>21.92</t>
+          <t>15.14</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>85.81</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.7672</t>
+          <t>0.4784</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1797,36 +2042,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270023</t>
+          <t>000834</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)</t>
+          <t>大成纳斯达克100指数（QDII）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>14.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>85.22</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.7405</t>
+          <t>0.4330</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1835,36 +2080,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>000906</t>
+          <t>003722</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发全球精选股票(QDII)美元现汇</t>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>22.04</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>73.33</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3.36</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.7405</t>
+          <t>0.2509</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1873,32 +2118,32 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>160213</t>
+          <t>161130</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰纳斯达克100指数(QDII)</t>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13.95</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>87.73</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.4771</t>
+          <t>0.2509</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -1911,32 +2156,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000834</t>
+          <t>014978</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>大成纳斯达克100指数 (QDII)</t>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13.72</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>92.09</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3.31</t>
+          <t>3.27</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.4541</t>
+          <t>0.0755</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1949,36 +2194,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>003722</t>
+          <t>161125</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+          <t>易方达标普500指数（QDII-LOF）人民币</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.2598</t>
+          <t>0.0739</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1987,36 +2232,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>161130</t>
+          <t>012860</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+          <t>易方达标普500指数（QDII-LOF）人民币 C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.2598</t>
+          <t>0.0739</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
@@ -2030,31 +2275,31 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>易方达标普500指数(QDII-LOF) 美元</t>
+          <t>易方达标普500指数（QDII-LOF）美元A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.0727</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -2063,32 +2308,32 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>161125</t>
+          <t>159632</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+          <t>华安纳斯达克100ETF（QDII）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>89.05</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.0479</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -2101,36 +2346,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>012860</t>
+          <t>005698</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>易方达标普500指数（QDII-LOF）人民币C</t>
+          <t>华夏全球科技先锋混合（QDII）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>86.79</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>6.46</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.0381</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -2139,36 +2384,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>012861</t>
+          <t>159612</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>易方达标普500指数（QDII-LOF）美元C</t>
+          <t>国泰标普500ETF（QDII）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4.67</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>90.95</t>
+          <t>91.40</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0803</t>
+          <t>0.0087</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19">
@@ -2177,36 +2422,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005698</t>
+          <t>006555</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>华夏全球科技先锋混合QDII</t>
+          <t>浦银安盛全球智能科技股票（QDII）A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>75.04</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0460</t>
+          <t>0.0078</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
@@ -2215,36 +2460,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006555</t>
+          <t>012871</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>浦银安盛全球智能科技股票（QDII）</t>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0082</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
@@ -2263,22 +2508,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>90.67</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0058</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -2291,36 +2536,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>012871</t>
+          <t>012861</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+          <t>易方达标普500指数（QDII-LOF）美元 C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>90.72</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3.37</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0012</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
@@ -2344,12 +2589,12 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>84.65</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2358,7 +2603,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2367,6 +2612,898 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>159941</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发纳斯达克100ETFQDII</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>79.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7355</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513100</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100 (QDII-ETF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4651</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>513500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时标普500ETF(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>62.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1205</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>040046</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>040047</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现钞</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>040048</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数QDII - 美元现汇</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014978</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安纳斯达克100指数（QDII）人民币C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7672</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>270023</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000906</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发全球精选股票(QDII)美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>22.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>73.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7405</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>160213</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰纳斯达克100指数(QDII)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.95</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4771</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100指数 (QDII)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>13.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4541</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003722</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161130</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003718</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 美元</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>161125</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达标普500指数(QDII-LOF) 人民币</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012860</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）人民币C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>易方达标普500指数（QDII-LOF）美元C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005698</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏全球科技先锋混合QDII</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.04</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006555</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012870</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数人民币（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012871</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>易方达纳斯达克100指数美元（QDII-LOF）C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>014002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛全球智能科技股票（QDII）C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3182,7 +4319,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3960,7 +5097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4662,7 +5799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
